--- a/CoreRulebook/Data/Spells/divination.xlsx
+++ b/CoreRulebook/Data/Spells/divination.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incantation</t>
   </si>
   <si>
@@ -40,18 +43,6 @@
     <t xml:space="preserve">Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resist</t>
   </si>
   <si>
@@ -67,6 +58,9 @@
     <t xml:space="preserve">Astral Assistance</t>
   </si>
   <si>
+    <t xml:space="preserve">Telepathy</t>
+  </si>
+  <si>
     <t xml:space="preserve">auxilio</t>
   </si>
   <si>
@@ -76,12 +70,6 @@
     <t xml:space="preserve">Golden glow</t>
   </si>
   <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
-  </si>
-  <si>
     <t xml:space="preserve">By laying your hand upon a sapient being, you may channel magical energy into them. On the next check the target performs, roll 1d4, and add it to the check (+1 per PP, max 3). If the check fails, both the target and the caster take 1d6 psychic damage. </t>
   </si>
   <si>
@@ -91,6 +79,9 @@
     <t xml:space="preserve">Hunter\apos{}s Mark</t>
   </si>
   <si>
+    <t xml:space="preserve">Temporal</t>
+  </si>
+  <si>
     <t xml:space="preserve">venari</t>
   </si>
   <si>
@@ -103,16 +94,13 @@
     <t xml:space="preserve">3 days</t>
   </si>
   <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
     <t xml:space="preserve">INT (Perception, passive)</t>
   </si>
   <si>
     <t xml:space="preserve">CC</t>
   </si>
   <si>
-    <t xml:space="preserve">If casting check exceeds passive resist value, caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means.</t>
+    <t xml:space="preserve">Caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means. Passive resist nullifies this effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Identify</t>
@@ -122,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Blue rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research</t>
   </si>
   <si>
     <t xml:space="preserve">Learn the properties of the target: be it learning about the nature of the target, or the ingredients of a potion.
@@ -161,9 +146,6 @@
     <t xml:space="preserve">antidolus</t>
   </si>
   <si>
-    <t xml:space="preserve">Understand Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attempt to discover any traps in your immediate vicinity. If successful, you may learn the location of the trap, and the trigger (but not the effect). Success conditions are set by the GM.</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
     <t xml:space="preserve">orbis</t>
   </si>
   <si>
-    <t xml:space="preserve">Perception</t>
-  </si>
-  <si>
     <t xml:space="preserve">You may create an invisible, magic eye in front of you, that hovers. You mentally see everything that the eye sees, and may use a major action to instruct the eye to move up to 10m in any direction (including vertical). Eye cannot pass through solid walls, but may squeeze through gaps as small as 4cm in diameter. Eye can detect astral projections. </t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t xml:space="preserve">1 hour</t>
   </si>
   <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPR (Endurance)</t>
   </si>
   <si>
@@ -242,9 +218,6 @@
     <t xml:space="preserve">Ritual (4 turns)</t>
   </si>
   <si>
-    <t xml:space="preserve">EMP </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gaze into your crystal ball, and ask a question of the cosmos. You will receive a yes or a no answer to any question you ask. </t>
   </si>
   <si>
@@ -296,12 +269,6 @@
     <t xml:space="preserve">1 week</t>
   </si>
   <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPR (Willpower)</t>
   </si>
   <si>
@@ -318,9 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">Green flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT </t>
   </si>
   <si>
     <t xml:space="preserve">You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
@@ -413,9 +377,6 @@
     <t xml:space="preserve">Green glow</t>
   </si>
   <si>
-    <t xml:space="preserve">Flora \&amp; Fauna</t>
-  </si>
-  <si>
     <t xml:space="preserve">You tap into the consciousness that binds all living things together, and receive information about the natural order of things in the vicinity. Outdoors, the range is 3km, whilst underground it is only 100m. Spell fails in artificial environments such as towns. You instantly learn and 3 three bits of information about \begin{itemize}\item terrain and bodies of water \item nearby buildings \item abundant plants or minerals \item frequent visitors \end{itemize}</t>
   </si>
   <si>
@@ -499,6 +460,43 @@
   </si>
   <si>
     <t xml:space="preserve">Allows the caster to extract a specific memory from their minds, for subsequent storage, either in a glass vial, or in a pensieve. Memories that have been extracted through this method cannot be viewed by legilimency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occlumency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occlumens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up barriers around your mind to defend yourself. 
+Legilimency will not work on you, and all other mind-altering spells take a casting penalty equal to one third of your total level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replay Spell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> priori incantatem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostly images of the last (2+PP) spells cast by a target wand appear, informing the caster of the target and time of the casting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planewalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambulo mundus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (2 minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By carefully preparing every atom in your body, you may slip effortlessly between this world and the Astral Realm, without the need for a portal. Your entire body enters into the astral realm, where you may perceive things in both the Mortal World, and the Astral Realm, but you may only interact with the astral realm. Cast this spell again to cross back over. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a character greater than 18th level, you may use this spell at the site of a {\it Planemeld} spell to travel to that plane of existence. </t>
   </si>
 </sst>
 </file>
@@ -508,7 +506,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -547,6 +545,18 @@
       <sz val="8"/>
       <name val="aakar"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -634,7 +644,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,6 +691,30 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -760,27 +794,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="115.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="75.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="23.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="115.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="75.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,1026 +844,867 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7" t="s">
-        <v>35</v>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>40</v>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9" t="s">
-        <v>43</v>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11" t="s">
-        <v>47</v>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7" t="s">
-        <v>56</v>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7" t="s">
-        <v>60</v>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7" t="s">
-        <v>74</v>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9" t="s">
-        <v>77</v>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <v>15</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7" t="s">
-        <v>86</v>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>95</v>
+      <c r="H16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11" t="s">
-        <v>100</v>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>105</v>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7" t="s">
-        <v>108</v>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>111</v>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9" t="s">
-        <v>115</v>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11" t="s">
-        <v>121</v>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>124</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9" t="s">
-        <v>126</v>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>24</v>
+        <v>114</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="10" t="n">
-        <v>7</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9" t="s">
-        <v>135</v>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9" t="s">
-        <v>138</v>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>141</v>
+      <c r="J27" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>145</v>
+      <c r="J28" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="K32" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/divination.xlsx
+++ b/CoreRulebook/Data/Spells/divination.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6942AD3-A399-4D6E-B6DE-679E02CE9A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,301 +25,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astral Assistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telepathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden glow</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Astral Assistance</t>
+  </si>
+  <si>
+    <t>Telepathy</t>
+  </si>
+  <si>
+    <t>auxilio</t>
+  </si>
+  <si>
+    <t>Ritual (2 turns)</t>
+  </si>
+  <si>
+    <t>Golden glow</t>
   </si>
   <si>
     <t xml:space="preserve">By laying your hand upon a sapient being, you may channel magical energy into them. On the next check the target performs, roll 1d4, and add it to the check (+1 per PP, max 3). If the check fails, both the target and the caster take 1d6 psychic damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">An expert-level caster may roll 2d4 when performing this spell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunter\apos{}s Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-transparent arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT (Perception, passive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means. Passive resist nullifies this effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dicemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn the properties of the target: be it learning about the nature of the target, or the ingredients of a potion.
+    <t>An expert-level caster may roll 2d4 when performing this spell.</t>
+  </si>
+  <si>
+    <t>Hunter\apos{}s Mark</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>venari</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>Semi-transparent arrow</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>INT (Perception, passive)</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means. Passive resist nullifies this effect.</t>
+  </si>
+  <si>
+    <t>Identify</t>
+  </si>
+  <si>
+    <t>dicemi</t>
+  </si>
+  <si>
+    <t>Blue rays</t>
+  </si>
+  <si>
+    <t>Learn the properties of the target: be it learning about the nature of the target, or the ingredients of a potion.
 The more power points dedicated to the spell, the more information that is revealed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Locate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT (Stealth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn the location of non-magical objects or an unshielded living being. A being may hide from this spell by Resisting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An master-level clairvoyant may perform a SPR(willpower) check to overcome magical shields blocking this spell\apos{}s effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receive Omen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use your tea leaves to receive an omen about the future. Ask a question about the outcome of an event. The tea leaves will tell you if the outcome is positive, negative, or neutral. Takes 4 minutes to cast.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sense Traps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antidolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempt to discover any traps in your immediate vicinity. If successful, you may learn the location of the trap, and the trigger (but not the effect). Success conditions are set by the GM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak in Tongues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lingua maxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 minutes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutes</t>
+    <t>Locate</t>
+  </si>
+  <si>
+    <t>locus</t>
+  </si>
+  <si>
+    <t>INT (Stealth)</t>
+  </si>
+  <si>
+    <t>Learn the location of non-magical objects or an unshielded living being. A being may hide from this spell by Resisting.</t>
+  </si>
+  <si>
+    <t>An master-level clairvoyant may perform a SPR(willpower) check to overcome magical shields blocking this spell\apos{}s effect.</t>
+  </si>
+  <si>
+    <t>Receive Omen</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t>Use your tea leaves to receive an omen about the future. Ask a question about the outcome of an event. The tea leaves will tell you if the outcome is positive, negative, or neutral. Takes 4 minutes to cast.</t>
+  </si>
+  <si>
+    <t>Sense Traps</t>
+  </si>
+  <si>
+    <t>antidolus</t>
+  </si>
+  <si>
+    <t>Attempt to discover any traps in your immediate vicinity. If successful, you may learn the location of the trap, and the trigger (but not the effect). Success conditions are set by the GM.</t>
+  </si>
+  <si>
+    <t>Speak in Tongues</t>
+  </si>
+  <si>
+    <t>lingua maxima</t>
+  </si>
+  <si>
+    <t>Ritual (5 minutes)</t>
+  </si>
+  <si>
+    <t>4 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">By meditating for 5 minutes, you may understand and speak the language of a willing target individual. Target must be a sapient being, or otherwise able to speak at least one language. </t>
   </si>
   <si>
-    <t xml:space="preserve">Telepathic Bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conanimus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 days</t>
+    <t>Telepathic Bond</t>
+  </si>
+  <si>
+    <t>conanimus</t>
+  </si>
+  <si>
+    <t>2 days</t>
   </si>
   <si>
     <t xml:space="preserve">Form a mental connection between your mind and the mind of a willing target. You may then use this connection to communicate silently. Target must be within touching distance when the spell is cast, but the bond has no distance limit after that. </t>
   </si>
   <si>
-    <t xml:space="preserve">All-seeing Eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orbis</t>
+    <t>All-seeing Eye</t>
+  </si>
+  <si>
+    <t>orbis</t>
   </si>
   <si>
     <t xml:space="preserve">You may create an invisible, magic eye in front of you, that hovers. You mentally see everything that the eye sees, and may use a major action to instruct the eye to move up to 10m in any direction (including vertical). Eye cannot pass through solid walls, but may squeeze through gaps as small as 4cm in diameter. Eye can detect astral projections. </t>
   </si>
   <si>
-    <t xml:space="preserve">Astral Caltrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caltrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purple bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Endurance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC+3$\times$PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target acts as if the terrain posseses caltrops for 10 turns. Caltrops do 1d6 psychic damage for every metre moved by the target.</t>
+    <t>Astral Caltrops</t>
+  </si>
+  <si>
+    <t>Caltrops</t>
+  </si>
+  <si>
+    <t>Purple bolt</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>SPR (Endurance)</t>
+  </si>
+  <si>
+    <t>CC+3$\times$PP</t>
+  </si>
+  <si>
+    <t>The target acts as if the terrain posseses caltrops for 10 turns. Caltrops do 1d6 psychic damage for every metre moved by the target.</t>
   </si>
   <si>
     <t xml:space="preserve">When cast by an adept-level caster, this spell can effect all beings in a 1d4 metre radius, and when cast by a Master-level caster, the caltrops do 2d8 damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Crystal Gazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (4 turns)</t>
+    <t>Crystal Gazing</t>
+  </si>
+  <si>
+    <t>Gazing</t>
+  </si>
+  <si>
+    <t>Ritual (4 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">Gaze into your crystal ball, and ask a question of the cosmos. You will receive a yes or a no answer to any question you ask. </t>
   </si>
   <si>
-    <t xml:space="preserve">Detect Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revelio</t>
+    <t>Detect Magic</t>
+  </si>
+  <si>
+    <t>revelio</t>
   </si>
   <si>
     <t xml:space="preserve">Reveals to the caster any active spells in the in 15m range if the casting check exceeds the hiding check. Will deactivate charms whose sole purpose is to remain hidden. </t>
   </si>
   <si>
-    <t xml:space="preserve">Detect Thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psychopractum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception (Passive)</t>
+    <t>Detect Thoughts</t>
+  </si>
+  <si>
+    <t>psychopractum</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Perception (Passive)</t>
   </si>
   <si>
     <t xml:space="preserve">You may observe the mind of a target individual. Unlike legilimency, thought-detection is not an exact science, and you will only get a vague shape of their current thoughts – perhaps a quick flash of colour, or a feeling of fear. On a successful (passive) Resist, target becomes aware of the process. </t>
   </si>
   <si>
-    <t xml:space="preserve">An Master-level caster may subtly alter the flow of a target\apos{}s thoughts, and cause them to think about whatever the caster desires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eavesdrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumauris</t>
+    <t>An Master-level caster may subtly alter the flow of a target\apos{}s thoughts, and cause them to think about whatever the caster desires.</t>
+  </si>
+  <si>
+    <t>Eavesdrop</t>
+  </si>
+  <si>
+    <t>dumauris</t>
   </si>
   <si>
     <t xml:space="preserve">Can listen in on conversations up to (10 + 2$\times$PP) meters away. </t>
   </si>
   <si>
-    <t xml:space="preserve">Obfuscation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obscuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 hour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR (Willpower)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 + PP</t>
+    <t>Obfuscation</t>
+  </si>
+  <si>
+    <t>obscuras</t>
+  </si>
+  <si>
+    <t>Ritual (1 hour)</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>SPR (Willpower)</t>
+  </si>
+  <si>
+    <t>10 + PP</t>
   </si>
   <si>
     <t xml:space="preserve">All attempts to locate, scry on, or otherwise detect the target using magical means must pass a successful Resist, or fail. </t>
   </si>
   <si>
-    <t xml:space="preserve">Contingency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fortasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foresight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">providentia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 turn</t>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>fortasse</t>
+  </si>
+  <si>
+    <t>Green flash</t>
+  </si>
+  <si>
+    <t>You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
+  </si>
+  <si>
+    <t>Foresight</t>
+  </si>
+  <si>
+    <t>providentia</t>
+  </si>
+  <si>
+    <t>1 turn</t>
   </si>
   <si>
     <t xml:space="preserve">By predicting the flow of time, you can give the target the ability to make moves without thinking: give the target 2 extra major actions next turn. Each target can only get this boost once per day. </t>
   </si>
   <si>
-    <t xml:space="preserve">A master-level caster may provide 1+1d4 extra actions per turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glimpse Future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posterus</t>
+    <t>A master-level caster may provide 1+1d4 extra actions per turn.</t>
+  </si>
+  <si>
+    <t>Glimpse Future</t>
+  </si>
+  <si>
+    <t>posterus</t>
   </si>
   <si>
     <t xml:space="preserve">Get a fleeting glimpse into the future: Automatically dodge the next attack, in addition to your regular action, OR, your next attack always hits its target. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sense Humans</t>
+    <t>Sense Humans</t>
   </si>
   <si>
     <t xml:space="preserve">Reveals the presence of humanoid life nearby. 
@@ -325,39 +330,36 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a caster greater than 15</t>
+      <t>When cast by a caster greater than 15</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, you also learn the name of the humans. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Astral Projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambilofors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invisible ripple</t>
+    <t>Astral Projection</t>
+  </si>
+  <si>
+    <t>ambilofors</t>
+  </si>
+  <si>
+    <t>Invisible ripple</t>
   </si>
   <si>
     <t xml:space="preserve">Leave your physical form behind, and project your spirit into the Astral Realm. 
@@ -365,148 +367,160 @@
 If your astral self is killed, your physical body{\apos}s HP is reduced to zero, and your enter into the Critical Condition status. </t>
   </si>
   <si>
-    <t xml:space="preserve">Commune with Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naturus amicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green glow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You tap into the consciousness that binds all living things together, and receive information about the natural order of things in the vicinity. Outdoors, the range is 3km, whilst underground it is only 100m. Spell fails in artificial environments such as towns. You instantly learn and 3 three bits of information about \begin{itemize}\item terrain and bodies of water \item nearby buildings \item abundant plants or minerals \item frequent visitors \end{itemize}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune with the Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amisit amicum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 hours)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey-black aura</t>
+    <t>Commune with Nature</t>
+  </si>
+  <si>
+    <t>naturus amicus</t>
+  </si>
+  <si>
+    <t>Ritual (5 turns)</t>
+  </si>
+  <si>
+    <t>Green glow</t>
+  </si>
+  <si>
+    <t>You tap into the consciousness that binds all living things together, and receive information about the natural order of things in the vicinity. Outdoors, the range is 3km, whilst underground it is only 100m. Spell fails in artificial environments such as towns. You instantly learn and 3 three bits of information about \begin{itemize}\item terrain and bodies of water \item nearby buildings \item abundant plants or minerals \item frequent visitors \end{itemize}</t>
+  </si>
+  <si>
+    <t>Commune with the Dead</t>
+  </si>
+  <si>
+    <t>amisit amicum</t>
+  </si>
+  <si>
+    <t>Ritual (2 hours)</t>
+  </si>
+  <si>
+    <t>Grey-black aura</t>
   </si>
   <si>
     <t xml:space="preserve">You may summon a spirit of the dead, and learn one piece of information from them, or temporarily borrow one of their skills and/or spells for (1+PP) turns. You must know the target\apos{}s name, and they must be willing to help you. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ethereal Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2 + 2$\times$ PP) minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN (Stealth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the target fails to Resist, place a mystical marker on the target which enables your allies to strike more accurately at them. Target\apos{}s stealth checks fail, and evasion checks get a -5 penalty for (2+PP) turns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mists of Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momento aeternitatis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter into a trance, whereby you can observe the past or the future, to uncover what was, or what will be at either your present location, or to a specific individual. 
+    <t>Ethereal Tag</t>
+  </si>
+  <si>
+    <t>signum</t>
+  </si>
+  <si>
+    <t>Yellow bolt</t>
+  </si>
+  <si>
+    <t>(2 + 2$\times$ PP) minutes</t>
+  </si>
+  <si>
+    <t>FIN (Stealth)</t>
+  </si>
+  <si>
+    <t>If the target fails to Resist, place a mystical marker on the target which enables your allies to strike more accurately at them. Target\apos{}s stealth checks fail, and evasion checks get a -5 penalty for (2+PP) turns.</t>
+  </si>
+  <si>
+    <t>Mists of Time</t>
+  </si>
+  <si>
+    <t>momento aeternitatis</t>
+  </si>
+  <si>
+    <t>Enter into a trance, whereby you can observe the past or the future, to uncover what was, or what will be at either your present location, or to a specific individual. 
 You may observe up to (1+PP) day into the future, or (1+PP) year into the past.</t>
   </si>
   <si>
-    <t xml:space="preserve">True Sight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vidergo sumus</t>
+    <t>True Sight</t>
+  </si>
+  <si>
+    <t>vidergo sumus</t>
   </si>
   <si>
     <t xml:space="preserve">For 1 hour, you see things as they truly are. You see hidden traps, secret doors, and astral projections. You can see through illusion spells, and attempts to deceive you are in vain.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Astral Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By focussing your inner energies, you are able to summon an ethereal weapon to strike at enemies on other planes of existence. Do (2+PP)d6 psychic damage to astral entities such as {\it Astral Projections}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planemeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cogitosum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You open yourself up to a higher power, channelling the energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the planes found on page \pageref{S:Planes}, wich also details the planemeld effects for each plane. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thought Extractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows the caster to extract a specific memory from their minds, for subsequent storage, either in a glass vial, or in a pensieve. Memories that have been extracted through this method cannot be viewed by legilimency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occlumency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occlumens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set up barriers around your mind to defend yourself. 
+    <t>Astral Attack</t>
+  </si>
+  <si>
+    <t>devonus</t>
+  </si>
+  <si>
+    <t>By focussing your inner energies, you are able to summon an ethereal weapon to strike at enemies on other planes of existence. Do (2+PP)d6 psychic damage to astral entities such as {\it Astral Projections}.</t>
+  </si>
+  <si>
+    <t>Planemeld</t>
+  </si>
+  <si>
+    <t>cogitosum</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Thought Extractor</t>
+  </si>
+  <si>
+    <t>Silver strings</t>
+  </si>
+  <si>
+    <t>Allows the caster to extract a specific memory from their minds, for subsequent storage, either in a glass vial, or in a pensieve. Memories that have been extracted through this method cannot be viewed by legilimency.</t>
+  </si>
+  <si>
+    <t>Occlumency</t>
+  </si>
+  <si>
+    <t>occlumens</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>Set up barriers around your mind to defend yourself. 
 Legilimency will not work on you, and all other mind-altering spells take a casting penalty equal to one third of your total level.</t>
   </si>
   <si>
-    <t xml:space="preserve">Replay Spell</t>
+    <t>Replay Spell</t>
   </si>
   <si>
     <t xml:space="preserve"> priori incantatem</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghostly images of the last (2+PP) spells cast by a target wand appear, informing the caster of the target and time of the casting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planewalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambulo mundus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 minutes)</t>
+    <t>Ghostly images of the last (2+PP) spells cast by a target wand appear, informing the caster of the target and time of the casting.</t>
+  </si>
+  <si>
+    <t>Planewalk</t>
+  </si>
+  <si>
+    <t>ambulo mundus</t>
+  </si>
+  <si>
+    <t>Ritual (2 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">By carefully preparing every atom in your body, you may slip effortlessly between this world and the Astral Realm, without the need for a portal. Your entire body enters into the astral realm, where you may perceive things in both the Mortal World, and the Astral Realm, but you may only interact with the astral realm. Cast this spell again to cross back over. </t>
   </si>
   <si>
     <t xml:space="preserve">When cast by a character greater than 18th level, you may use this spell at the site of a {\it Planemeld} spell to travel to that plane of existence. </t>
+  </si>
+  <si>
+    <t>Scrying Shield</t>
+  </si>
+  <si>
+    <t>audmi lirka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By entering into a deep trance for 1 hour, you may bring yourself into resonance with a higher power. At any point in the next 24 hours, you may use a major action to channel these energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the planes found on page \pageref{S:Planes}, wich also details the planemeld effects for each plane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield an object or being from magical investigation. Attempts to identify or locate this object through magical means fail. </t>
+  </si>
+  <si>
+    <t>Purple runes appear on surface, then fade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by an Expert-level caster, this spell has a duration of 2 weeks. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -514,24 +528,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -544,7 +542,6 @@
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -581,14 +578,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -603,7 +600,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -619,113 +616,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -784,39 +736,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMF33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="23.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="115.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="75.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="12" style="1" width="11.57"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="11.5703125" style="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="115" style="2" customWidth="1"/>
+    <col min="11" max="11" width="75.28515625" style="1" customWidth="1"/>
+    <col min="12" max="1020" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="24.2" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -867,10 +1126,10 @@
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
       <c r="H2" s="6"/>
@@ -882,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="24.2" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -901,7 +1160,7 @@
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -914,7 +1173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="31.35" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -930,10 +1189,10 @@
       <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="6">
         <v>1</v>
       </c>
       <c r="H4" s="6"/>
@@ -942,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="24.2" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -956,10 +1215,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -975,7 +1234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="24.2" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -987,10 +1246,10 @@
         <v>37</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="8"/>
@@ -999,7 +1258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="24.2" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
@@ -1013,10 +1272,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="10"/>
@@ -1025,7 +1284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="24.2" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -1042,7 +1301,7 @@
       <c r="F8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6"/>
@@ -1051,7 +1310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="31.35" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -1068,7 +1327,7 @@
       <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6"/>
@@ -1077,7 +1336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="24.2" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -1091,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="6">
         <v>2</v>
       </c>
       <c r="H10" s="6"/>
@@ -1103,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="24.2" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
@@ -1122,7 +1381,7 @@
       <c r="F11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="10">
         <v>2</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -1138,7 +1397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="24.2" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>62</v>
       </c>
@@ -1152,10 +1411,10 @@
         <v>64</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="6">
         <v>2</v>
       </c>
       <c r="H12" s="6"/>
@@ -1164,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="24.2" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>66</v>
       </c>
@@ -1178,10 +1437,10 @@
         <v>21</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="8">
         <v>2</v>
       </c>
       <c r="H13" s="8"/>
@@ -1190,7 +1449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="31.35" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
@@ -1204,10 +1463,10 @@
         <v>71</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="6">
         <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1223,7 +1482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="31.35" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -1237,10 +1496,10 @@
         <v>71</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="6"/>
@@ -1249,7 +1508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="31.35" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>78</v>
       </c>
@@ -1266,7 +1525,7 @@
       <c r="F16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="6">
         <v>2</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1279,7 +1538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="31.35" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
@@ -1295,10 +1554,10 @@
       <c r="E17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="10">
         <v>3</v>
       </c>
       <c r="H17" s="10"/>
@@ -1307,7 +1566,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="31.35" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>89</v>
       </c>
@@ -1324,7 +1583,7 @@
       <c r="F18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="6">
         <v>3</v>
       </c>
       <c r="H18" s="6"/>
@@ -1336,7 +1595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="24.2" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>94</v>
       </c>
@@ -1350,10 +1609,10 @@
         <v>21</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="6">
         <v>3</v>
       </c>
       <c r="H19" s="6"/>
@@ -1362,7 +1621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="31.35" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>97</v>
       </c>
@@ -1376,10 +1635,10 @@
         <v>21</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="8">
         <v>3</v>
       </c>
       <c r="H20" s="8"/>
@@ -1391,7 +1650,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="40.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="40.35" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>100</v>
       </c>
@@ -1407,10 +1666,10 @@
       <c r="E21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="8">
         <v>4</v>
       </c>
       <c r="H21" s="8"/>
@@ -1419,7 +1678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="31.35" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>104</v>
       </c>
@@ -1435,10 +1694,10 @@
       <c r="E22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="10">
         <v>4</v>
       </c>
       <c r="H22" s="10"/>
@@ -1447,7 +1706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="24.2" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>109</v>
       </c>
@@ -1463,10 +1722,10 @@
       <c r="E23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="8">
         <v>4</v>
       </c>
       <c r="H23" s="8"/>
@@ -1475,7 +1734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="31.35" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>114</v>
       </c>
@@ -1494,7 +1753,7 @@
       <c r="F24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="10">
         <v>4</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -1507,7 +1766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="31.35" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>120</v>
       </c>
@@ -1521,10 +1780,10 @@
         <v>80</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="8">
         <v>0</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="8">
         <v>5</v>
       </c>
       <c r="H25" s="8"/>
@@ -1533,7 +1792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="24.2" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>123</v>
       </c>
@@ -1550,7 +1809,7 @@
       <c r="F26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="8">
         <v>5</v>
       </c>
       <c r="H26" s="8"/>
@@ -1559,7 +1818,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="22.5">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -1572,17 +1831,17 @@
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="1">
         <v>3</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="56.25">
       <c r="A28" s="1" t="s">
         <v>129</v>
       </c>
@@ -1593,21 +1852,21 @@
         <v>130</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="1">
         <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="22.5">
+      <c r="A29" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1616,102 +1875,130 @@
         <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="22.5">
+      <c r="A30" s="10" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="10" t="n">
+        <v>137</v>
+      </c>
+      <c r="G30" s="10">
         <v>3</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="12" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="12">
         <v>0</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="13" t="n">
+      <c r="G31" s="13">
         <v>1</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" ht="36">
+      <c r="A32" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="16">
         <v>0</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="13" t="n">
+      <c r="G32" s="13">
         <v>5</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="15" t="s">
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/Spells/divination.xlsx
+++ b/CoreRulebook/Data/Spells/divination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6942AD3-A399-4D6E-B6DE-679E02CE9A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA125A-5384-4DD1-8905-5D823FBA4452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -304,9 +304,6 @@
     <t>1 turn</t>
   </si>
   <si>
-    <t xml:space="preserve">By predicting the flow of time, you can give the target the ability to make moves without thinking: give the target 2 extra major actions next turn. Each target can only get this boost once per day. </t>
-  </si>
-  <si>
     <t>A master-level caster may provide 1+1d4 extra actions per turn.</t>
   </si>
   <si>
@@ -320,10 +317,6 @@
   </si>
   <si>
     <t>Sense Humans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reveals the presence of humanoid life nearby. 
-Radius of spell is (4+PP) metres. </t>
   </si>
   <si>
     <r>
@@ -514,6 +507,46 @@
   </si>
   <si>
     <t xml:space="preserve">When cast by an Expert-level caster, this spell has a duration of 2 weeks. </t>
+  </si>
+  <si>
+    <t>Disrupt Connection</t>
+  </si>
+  <si>
+    <t>ruinosus</t>
+  </si>
+  <si>
+    <t>Loud crack sound</t>
+  </si>
+  <si>
+    <t>Invert Connection</t>
+  </si>
+  <si>
+    <t>ruinosus invertus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sever a telepathic connection possessed by the target. This may be used to sever a link such as that caused by the {\it Telepathic Bond} spell, or the link between caster and a summoned being. An untethered summoned being no  longer accepts orders from their creator, and will potentially attack them. A successful resist negates this effect, but the target takes 2 psychic damage instead.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As with the {\it Disrupt Connection} spell, sever the link between two beings such as that caused by {\it Telepathic Bond}, or by summoning a being. This link is then given to you -- giving you access to the telepathic network, or giving your control over the summoned creature etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By predicting the flow of time, you can give the target the ability to make moves without thinking: give the target an extra major action next turn. Each target can only get this boost once per day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reveals the presence of humanoid life nearby. The caster gets a snapshot of the distance and direction to every humoid being within range. 
+Radius of spell is (4+PP) metres. </t>
+  </si>
+  <si>
+    <t>Timeslip</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>(1 + $2\times $PP ) minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a perturbation in the temporal vortex which, on a failed Resist, catapaults the target forward in time, effectively removing them from reality for the duration of the spell. When the spell ends, the target reappears at their original location, unaware that time has passed. </t>
   </si>
 </sst>
 </file>
@@ -619,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -657,20 +690,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,13 +1093,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMF33"/>
+  <dimension ref="A1:AMF36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1259,47 +1298,48 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="24.2" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
+      <c r="F8" s="6">
+        <v>0</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1307,25 +1347,25 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -1333,82 +1373,67 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>0</v>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>61</v>
+      <c r="A11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24.2" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
@@ -1420,47 +1445,56 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>0</v>
+      <c r="E13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="31.35" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
@@ -1469,31 +1503,24 @@
       <c r="G14" s="6">
         <v>2</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="31.35" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
@@ -1505,497 +1532,605 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>81</v>
+      <c r="F16" s="6">
+        <v>0</v>
       </c>
       <c r="G16" s="6">
         <v>2</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
+      <c r="A17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
+      <c r="A18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="24.2" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="31.35" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>3</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="40.35" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="31.35" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="24.2" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="31.35" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G24" s="8">
         <v>3</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>3</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="40.35" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>4</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>4</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="31.35" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="10">
-        <v>4</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="31.35" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="24.2" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="22.5">
+      <c r="A27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33.75">
+      <c r="A28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="22.5">
+      <c r="A29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="22.5">
+      <c r="A30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="22.5">
+      <c r="A31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
         <v>5</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="22.5">
-      <c r="A27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="1">
+        <v>12</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="22.5">
+      <c r="A32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="56.25">
+      <c r="A33" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="56.25">
-      <c r="A28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="22.5">
-      <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="22.5">
-      <c r="A30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="10">
-        <v>3</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" ht="36">
-      <c r="A32" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="13">
-        <v>5</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="36">
+      <c r="A34" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="16">
+        <v>5</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="22.5">
+      <c r="A35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="22.5">
+      <c r="A36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K35">
+    <sortCondition ref="G2:G35"/>
+    <sortCondition ref="A2:A35"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
